--- a/src/main/resources/static/files/entity-item.xlsx
+++ b/src/main/resources/static/files/entity-item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14560"/>
+    <workbookView windowWidth="30240" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>产品</t>
   </si>
@@ -35,103 +35,73 @@
     <t>人员</t>
   </si>
   <si>
+    <t>汽车</t>
+  </si>
+  <si>
     <t>地址</t>
   </si>
   <si>
-    <t>年龄</t>
-  </si>
-  <si>
-    <t>体重</t>
-  </si>
-  <si>
-    <t>汽车</t>
-  </si>
-  <si>
     <t>螺丝</t>
   </si>
   <si>
     <t>张三</t>
   </si>
   <si>
+    <t>奔驰</t>
+  </si>
+  <si>
     <t>徐州</t>
   </si>
   <si>
-    <t>13岁</t>
-  </si>
-  <si>
-    <t>50KG</t>
-  </si>
-  <si>
-    <t>奔驰</t>
-  </si>
-  <si>
     <t>螺帽</t>
   </si>
   <si>
     <t>亮亮</t>
   </si>
   <si>
+    <t>宝马</t>
+  </si>
+  <si>
     <t>南京</t>
   </si>
   <si>
-    <t>24岁</t>
-  </si>
-  <si>
-    <t>56KG</t>
-  </si>
-  <si>
-    <t>宝马</t>
-  </si>
-  <si>
     <t>发动机</t>
   </si>
   <si>
     <t>Lily</t>
   </si>
   <si>
+    <t>奥迪</t>
+  </si>
+  <si>
     <t>北京</t>
   </si>
   <si>
-    <t>35岁</t>
-  </si>
-  <si>
-    <t>60KG</t>
-  </si>
-  <si>
-    <t>奥迪</t>
-  </si>
-  <si>
     <t>变速器</t>
   </si>
   <si>
     <t>王五</t>
   </si>
   <si>
+    <t>大众</t>
+  </si>
+  <si>
     <t>上海</t>
   </si>
   <si>
-    <t>40岁</t>
-  </si>
-  <si>
-    <t>59KG</t>
-  </si>
-  <si>
-    <t>大众</t>
+    <t>红旗</t>
   </si>
   <si>
     <t>济南</t>
   </si>
   <si>
-    <t>红旗</t>
+    <t>特斯拉</t>
   </si>
   <si>
     <t>常熟</t>
   </si>
   <si>
-    <t>特斯拉</t>
-  </si>
-  <si>
-    <t>蔚蓝</t>
+    <t>比亚迪</t>
   </si>
 </sst>
 </file>
@@ -144,14 +114,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,133 +587,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -758,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1284,15 +1247,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1305,112 +1268,87 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="1"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="6:6">
-      <c r="F8" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
